--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
@@ -1178,366 +1178,366 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" t="n">
         <v>16</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" t="n">
         <v>3</v>
       </c>
-      <c r="E168" s="2" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>16</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>4</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11266,1040 +11266,1040 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E209" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F228" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13190,106 +13190,106 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D247" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" t="inlineStr">
+      <c r="D247" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" t="n">
         <v>42</v>
       </c>
-      <c r="B460" s="2" t="inlineStr">
+      <c r="B460" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" s="2" t="inlineStr">
+      <c r="C460" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" s="2" t="n">
+      <c r="D460" t="n">
         <v>3</v>
       </c>
-      <c r="E460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L460" s="2" t="inlineStr">
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K460" t="b">
+        <v>1</v>
+      </c>
+      <c r="L460" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" t="n">
         <v>42</v>
       </c>
-      <c r="B461" s="2" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" s="2" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" s="2" t="n">
+      <c r="D461" t="n">
         <v>4</v>
       </c>
-      <c r="E461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L461" s="2" t="inlineStr">
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" t="b">
+        <v>1</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K461" t="b">
+        <v>1</v>
+      </c>
+      <c r="L461" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" t="n">
         <v>42</v>
       </c>
-      <c r="B462" s="2" t="inlineStr">
+      <c r="B462" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" s="2" t="inlineStr">
+      <c r="C462" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" s="2" t="n">
+      <c r="D462" t="n">
         <v>5</v>
       </c>
-      <c r="E462" s="2" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" s="2" t="inlineStr">
+      <c r="F462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L462" s="2" t="inlineStr">
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26005,7 +26005,7 @@
       </c>
       <c r="F492" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G492" s="2" t="b">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="L492" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26109,7 +26109,7 @@
       </c>
       <c r="F494" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G494" s="2" t="b">
@@ -26133,7 +26133,7 @@
       </c>
       <c r="L494" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
@@ -1178,366 +1178,366 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11266,1040 +11266,1040 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" t="n">
         <v>20</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" t="n">
         <v>3</v>
       </c>
-      <c r="E209" s="2" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>20</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>4</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>20</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" t="n">
         <v>5</v>
       </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>20</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>6</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>20</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>7</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>20</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>8</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>20</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>9</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>20</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>10</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>20</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>11</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>20</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>12</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>20</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>13</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>20</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>14</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>20</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>15</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>20</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>16</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>20</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>17</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>20</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>18</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>20</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>19</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>20</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>20</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>21</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>22</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13190,106 +13190,106 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>22</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>0</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>22</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="n">
+      <c r="A460" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B460" t="inlineStr">
+      <c r="B460" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
+      <c r="C460" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" t="n">
+      <c r="D460" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K460" t="b">
-        <v>1</v>
-      </c>
-      <c r="L460" t="inlineStr">
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J460" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L460" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="n">
+      <c r="A461" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B461" t="inlineStr">
+      <c r="B461" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr">
+      <c r="C461" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" t="n">
+      <c r="D461" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" t="b">
-        <v>1</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K461" t="b">
-        <v>1</v>
-      </c>
-      <c r="L461" t="inlineStr">
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J461" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L461" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="n">
+      <c r="A462" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B462" t="inlineStr">
+      <c r="B462" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
+      <c r="C462" s="2" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E462" t="inlineStr">
+      <c r="E462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" t="inlineStr">
+      <c r="F462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
+      <c r="G462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J462" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L462" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26005,7 +26005,7 @@
       </c>
       <c r="F492" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G492" s="2" t="b">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="L492" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26109,7 +26109,7 @@
       </c>
       <c r="F494" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G494" s="2" t="b">
@@ -26133,7 +26133,7 @@
       </c>
       <c r="L494" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
